--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tools\工作目录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Tech HD/workspaces/home/hadoop-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11355"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -98,14 +101,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,12 +256,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -288,12 +291,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -475,22 +478,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="192g方案" sheetId="1" r:id="rId1"/>
+    <sheet name="96g方案" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +109,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -164,8 +183,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -192,8 +229,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="I21" sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,4 +1058,551 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C:C*D:D</f>
+        <v>24</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C:C*H:H</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E20" si="0">C:C*D:D</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G20" si="1">C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I20" si="2">C:C*H:H</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="5">
+        <f>SUM(C2:C20)</f>
+        <v>11</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <f>SUM(E2:E20)</f>
+        <v>100</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <f>SUM(G2:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <f>SUM(I2:I20)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="192g方案" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,46 @@
   </si>
   <si>
     <t>win2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins&amp;maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java应用服务器</t>
+    <rPh sb="4" eb="5">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu wu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql&amp;mongodb&amp;redis&amp;memcached
+elasticsearch&amp;solrcloud&amp;solr(master-slave)
+zookeeper(dubbox、solr cloud)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -521,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:I21"/>
-    </sheetView>
+    <sheetView zoomScale="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1065,7 +1106,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,26 +1159,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>24</v>
       </c>
       <c r="E2" s="4">
-        <f>C:C*D:D</f>
-        <v>24</v>
-      </c>
-      <c r="F2" s="4"/>
+        <f t="shared" ref="E2:E20" si="0">C:C*D:D</f>
+        <v>48</v>
+      </c>
+      <c r="F2" s="4">
+        <v>112</v>
+      </c>
       <c r="G2" s="4">
-        <f>C:C*F:F</f>
-        <v>0</v>
+        <f t="shared" ref="G2:G20" si="1">C:C*F:F</f>
+        <v>224</v>
       </c>
       <c r="H2" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
-        <f>C:C*H:H</f>
-        <v>8</v>
+        <f t="shared" ref="I2:I20" si="2">C:C*H:H</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1154,28 +1197,30 @@
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E20" si="0">C:C*D:D</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>112</v>
+      </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G20" si="1">C:C*F:F</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>224</v>
       </c>
       <c r="H3" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I20" si="2">C:C*H:H</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -1187,17 +1232,19 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>96</v>
+      </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1205,25 +1252,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F5" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>80</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
@@ -1235,29 +1284,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>48</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1265,22 +1316,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>128</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -1294,63 +1347,93 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>72</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>72</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>98</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1360,44 +1443,64 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>32</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>48</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1583,22 +1686,22 @@
       <c r="B21" s="1"/>
       <c r="C21" s="5">
         <f>SUM(C2:C20)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f>SUM(E2:E20)</f>
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="30240" yWindow="-1300" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="192g方案" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1226,11 +1226,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4">
         <v>96</v>
@@ -1258,11 +1258,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4">
         <v>80</v>
@@ -1290,11 +1290,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <v>48</v>
@@ -1322,11 +1322,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="4">
         <v>128</v>
@@ -1354,11 +1354,11 @@
         <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>72</v>
@@ -1386,11 +1386,11 @@
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4">
         <v>72</v>
@@ -1691,7 +1691,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f>SUM(E2:E20)</f>
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Tech HD/workspaces/home/hadoop-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\home\hadoop-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1300" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="30240" yWindow="-1305" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="192g方案" sheetId="1" r:id="rId1"/>
     <sheet name="96g方案" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -98,19 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nexus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jenkins&amp;maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,12 +125,20 @@
 zookeeper(dubbox、solr cloud)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +276,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -566,15 +581,15 @@
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -633,7 +648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -663,7 +678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -693,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -723,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -753,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -783,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -805,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -827,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -849,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -871,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -893,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -915,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -937,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -959,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -981,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1106,23 +1121,23 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1215,22 +1230,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="42.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>96</v>
@@ -1247,44 +1262,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="D5" s="8">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>96</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H5" s="9">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1297,11 +1312,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1311,54 +1326,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
         <v>128</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4">
         <v>72</v>
@@ -1375,22 +1390,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
         <v>72</v>
@@ -1407,103 +1422,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>98</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4">
         <v>48</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1525,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1569,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1613,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1679,33 +1694,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
         <f>SUM(C2:C20)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f>SUM(E2:E20)</f>
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>1562</v>
+        <v>1530</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -15,7 +15,7 @@
     <sheet name="192g方案" sheetId="1" r:id="rId1"/>
     <sheet name="96g方案" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,62 @@
   </si>
   <si>
     <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134、135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138、139、140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2012a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2003a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop1、hadoop2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop3、hadoop4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db1、db2、db3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins1、jenkins2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app01-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,6 +290,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -252,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +357,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1135,9 +1232,11 @@
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1165,8 +1264,14 @@
       <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1184,11 +1289,11 @@
         <v>48</v>
       </c>
       <c r="F2" s="4">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G20" si="1">C:C*F:F</f>
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H2" s="2">
         <v>6</v>
@@ -1197,8 +1302,12 @@
         <f t="shared" ref="I2:I20" si="2">C:C*H:H</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
+      <c r="J2" s="12"/>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1216,11 +1325,11 @@
         <v>24</v>
       </c>
       <c r="F3" s="4">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H3" s="2">
         <v>6</v>
@@ -1229,8 +1338,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="42.75">
+      <c r="J3" s="12"/>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="42.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1248,11 +1361,11 @@
         <v>24</v>
       </c>
       <c r="F4" s="4">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -1261,8 +1374,12 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="J4" s="12"/>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1293,40 +1410,52 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="4">
+      <c r="J5" s="13">
+        <v>132</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>64</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>133</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1357,40 +1486,52 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="4">
+      <c r="J7" s="13">
+        <v>131</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="18" customFormat="1">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="15">
         <v>72</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="15">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="J8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1421,8 +1562,14 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="15">
+      <c r="J9" s="12">
+        <v>136</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1453,40 +1600,47 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="4">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="15">
         <v>48</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>137</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1517,8 +1671,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+      <c r="J12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1539,8 +1699,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1561,8 +1722,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1583,8 +1745,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1605,8 +1768,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1627,8 +1791,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1649,8 +1814,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1671,8 +1837,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1693,8 +1860,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1711,13 +1879,14 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>1530</v>
+        <v>1642</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
         <v>58</v>
       </c>
+      <c r="J21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db1、db2、db3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jenkins1、jenkins2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +183,10 @@
   </si>
   <si>
     <t>app01-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db1、db2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,17 +290,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -359,9 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -381,6 +367,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1207,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1232,7 +1221,7 @@
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1267,7 +1256,7 @@
       <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1289,11 +1278,11 @@
         <v>48</v>
       </c>
       <c r="F2" s="4">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G20" si="1">C:C*F:F</f>
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="H2" s="2">
         <v>6</v>
@@ -1302,8 +1291,8 @@
         <f t="shared" ref="I2:I20" si="2">C:C*H:H</f>
         <v>12</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1325,11 +1314,11 @@
         <v>24</v>
       </c>
       <c r="F3" s="4">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="H3" s="2">
         <v>6</v>
@@ -1338,8 +1327,8 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1351,32 +1340,32 @@
         <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F4" s="4">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1">
@@ -1410,10 +1399,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>132</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1448,10 +1437,10 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>133</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1486,49 +1475,49 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>131</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1">
-      <c r="A8" s="15">
+    <row r="8" spans="1:11" s="17" customFormat="1">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
         <v>6</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>72</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="H8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>35</v>
+      <c r="K8" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1562,10 +1551,10 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>136</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1600,44 +1589,45 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" s="18" customFormat="1">
-      <c r="A11" s="15">
+      <c r="J10" s="12"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="17" customFormat="1">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="15">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11" s="14">
         <v>48</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="H11" s="15">
+        <v>2</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
         <v>137</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>36</v>
+      <c r="K11" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1671,11 +1661,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>37</v>
+      <c r="K12" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1699,7 +1689,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4">
@@ -1722,7 +1713,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4">
@@ -1745,7 +1737,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4">
@@ -1768,9 +1761,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="11"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1791,9 +1785,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="11"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1814,9 +1809,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="11"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1837,9 +1833,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="11"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1860,16 +1857,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="11"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
         <f>SUM(C2:C20)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5">
@@ -1879,14 +1877,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>58</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>db1、db2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141、142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143、144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146、147</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,7 +1219,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1291,7 +1303,9 @@
         <f t="shared" ref="I2:I20" si="2">C:C*H:H</f>
         <v>12</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="K2" s="18" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1341,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="K3" s="18" t="s">
         <v>33</v>
       </c>
@@ -1363,7 +1379,9 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="K4" s="18" t="s">
         <v>37</v>
       </c>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -106,99 +106,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java应用服务器</t>
+    <t>win2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134、135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138、139、140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nexus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2012a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2003a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop1、hadoop2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop3、hadoop4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jenkins1、jenkins2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app01-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db1、db2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141、142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143、144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145、146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql&amp;mongodb&amp;redis&amp;memcached
+elasticsearch&amp;solrcloud&amp;solr(master-slave)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java应用服务器
+zookeeper(dubbox、solr cloud)</t>
     <rPh sb="4" eb="5">
       <t>ying yong</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>fu wu qi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>win2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql&amp;mongodb&amp;redis&amp;memcached
-elasticsearch&amp;solrcloud&amp;solr(master-slave)
-zookeeper(dubbox、solr cloud)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nexus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>134、135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>138、139、140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nexus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>win2012a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>win2003a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitlab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hadoop1、hadoop2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hadoop3、hadoop4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jenkins1、jenkins2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app01-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db1、db2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>141、142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>143、144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146、147</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1266,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1290,11 +1290,11 @@
         <v>48</v>
       </c>
       <c r="F2" s="4">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" ref="G2:G20" si="1">C:C*F:F</f>
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="H2" s="2">
         <v>6</v>
@@ -1304,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1342,18 +1342,18 @@
         <v>12</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="42.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1380,10 +1380,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1">
@@ -1421,7 +1421,7 @@
         <v>132</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1">
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>133</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1">
@@ -1497,7 +1497,7 @@
         <v>131</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1">
@@ -1532,10 +1532,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1543,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1">
@@ -1615,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -1645,15 +1645,15 @@
         <v>137</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -1680,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1895,7 +1895,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>1626</v>
+        <v>1658</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>win2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nginx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
   </si>
   <si>
     <t>win2012a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>win2003a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,6 +191,18 @@
     <rPh sb="6" eb="7">
       <t>fu wu qi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2012b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,7 +1223,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1266,10 +1270,10 @@
         <v>13</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1304,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1342,10 +1346,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5">
@@ -1353,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1380,10 +1384,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="10" customFormat="1">
@@ -1391,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1421,7 +1425,7 @@
         <v>132</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="10" customFormat="1">
@@ -1429,37 +1433,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6" s="8">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H6" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="12">
         <v>133</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1">
@@ -1497,7 +1501,7 @@
         <v>131</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1">
@@ -1532,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1543,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1573,7 +1577,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1">
@@ -1615,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -1645,7 +1649,7 @@
         <v>137</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.5">
@@ -1653,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -1680,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1890,17 +1894,17 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f>SUM(E2:E20)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
         <f>SUM(G2:G20)</f>
-        <v>1658</v>
+        <v>1690</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
         <f>SUM(I2:I20)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="18"/>

--- a/虚拟机规划.xlsx
+++ b/虚拟机规划.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1305" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="30240" yWindow="-1305" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="192g方案" sheetId="1" r:id="rId1"/>
     <sheet name="96g方案" sheetId="2" r:id="rId2"/>
+    <sheet name="8g方案" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +204,32 @@
   </si>
   <si>
     <t>win2012b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java应用服务器</t>
+    <rPh sb="4" eb="5">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu wu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111、112、113、114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app04-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win2003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,9 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
@@ -1914,4 +1939,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C:C*D:D</f>
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>128</v>
+      </c>
+      <c r="G2" s="4">
+        <f>C:C*F:F</f>
+        <v>512</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <f>C:C*H:H</f>
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <f>C:C*D:D</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>128</v>
+      </c>
+      <c r="G3" s="4">
+        <f>C:C*F:F</f>
+        <v>128</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <f>C:C*H:H</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>110</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <f>C:C*D:D</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f>C:C*F:F</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <f>C:C*H:H</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5">
+        <f>SUM(C2:C10)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <f>SUM(E2:E10)</f>
+        <v>10</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <f>SUM(G2:G10)</f>
+        <v>640</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <f>SUM(I2:I10)</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>